--- a/biology/Zoologie/Hirsutodynomene/Hirsutodynomene.xlsx
+++ b/biology/Zoologie/Hirsutodynomene/Hirsutodynomene.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hirsutodynomene est un genre de crabes de la famille des Dynomenidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Hirsutodynomene a été créé en 1999 par le carcinologiste néozélandais Colin L. McLay (d) (1942-) avec comme espèce type Hirsutodynomene spinosa[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Hirsutodynomene a été créé en 1999 par le carcinologiste néozélandais Colin L. McLay (d) (1942-) avec comme espèce type Hirsutodynomene spinosa.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (27 août 2021)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (27 août 2021) :
 Hirsutodynomene spinosa (Rathbun, 1911) -- Indo-Pacifique tropical - espèce type
 Hirsutodynomene ursula (Stimpson, 1860) -- Clipperton
 Hirsutodynomene vespertilio McLay &amp; Ng, 2005 -- Philippines</t>
@@ -575,7 +591,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Colin L. McLay, « Crustacea Decapoda: Revision of the Family Dynomenidae. In: Crosnier, A. (Ed.) Résultats des Campagnes Musorstorm. Volume 20 », Mémoires du Muséum national d'histoire Naturelle. Nouvelle série. Série A, Zoologie., vol. 180,‎ 1999, p. 427-569 (ISSN 0078-9747, lire en ligne)</t>
         </is>
